--- a/biology/Botanique/Aquilegia_grata/Aquilegia_grata.xlsx
+++ b/biology/Botanique/Aquilegia_grata/Aquilegia_grata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Ancolie mauve (Aquilegia grata) est une espèce de plante herbacée de la famille des Ranunculaceae du genre des Ancolies. Elle est rare et endémique des Alpes Dinariques. Elle est de petite taille, mesurant entre 10 et 25 centimètres.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Organes reproducteurs
 Couleur dominante des fleurs : mauve à violacé
